--- a/DATA_goal/Junction_Flooding_333.xlsx
+++ b/DATA_goal/Junction_Flooding_333.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>45014.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.28</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.51</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.88</v>
+        <v>28.83</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.15</v>
+        <v>21.49</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.24</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.06</v>
+        <v>30.57</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.63</v>
+        <v>16.29</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.65</v>
+        <v>6.47</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.96</v>
+        <v>9.56</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.33</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.14</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.05</v>
+        <v>10.53</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.44</v>
+        <v>14.42</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>15.28</v>
+        <v>152.85</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.91</v>
+        <v>29.12</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.88</v>
+        <v>18.77</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.96</v>
+        <v>9.57</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.65</v>
+        <v>16.47</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.58</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.72</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.77</v>
+        <v>27.69</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45014.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.33</v>
+        <v>13.32</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.66</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.92</v>
+        <v>29.22</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.29</v>
+        <v>22.93</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.36</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.97</v>
+        <v>39.73</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.63</v>
+        <v>16.29</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.7</v>
+        <v>6.96</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.12</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.16</v>
+        <v>11.65</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.25</v>
+        <v>12.46</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.05</v>
+        <v>10.53</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.48</v>
+        <v>14.76</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.92</v>
+        <v>9.23</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>15.29</v>
+        <v>152.91</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.94</v>
+        <v>29.45</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.94</v>
+        <v>19.4</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.07</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.99</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.98</v>
+        <v>19.76</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.58</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.79</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.92</v>
+        <v>9.17</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.12</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.65</v>
+        <v>36.55</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.31</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45014.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.94</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.8</v>
+        <v>7.95</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.4</v>
+        <v>24.03</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.9</v>
+        <v>19.03</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.46</v>
+        <v>34.57</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.34</v>
+        <v>13.38</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.4</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.03</v>
+        <v>10.28</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.65</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.17</v>
       </c>
       <c r="Q4" s="4" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>124.3</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>24.22</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.75</v>
       </c>
-      <c r="R4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>3.17</v>
+        <v>31.68</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.38</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>45014.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.1</v>
+        <v>21.04</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.56</v>
+        <v>15.64</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.25</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.6</v>
+        <v>45.99</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.74</v>
+        <v>37.38</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.65</v>
+        <v>16.5</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.25</v>
+        <v>62.47</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.56</v>
+        <v>25.6</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.33</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.67</v>
+        <v>16.73</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.84</v>
+        <v>18.43</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.96</v>
+        <v>19.6</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.31</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.65</v>
+        <v>16.54</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.35</v>
+        <v>23.5</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.4</v>
+        <v>13.99</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>24.45</v>
+        <v>244.47</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.62</v>
+        <v>46.22</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.53</v>
+        <v>15.27</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.1</v>
+        <v>31.02</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.26</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.47</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.07</v>
+        <v>30.75</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.35</v>
+        <v>13.49</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.2</v>
+        <v>11.98</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.41</v>
+        <v>14.09</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.93</v>
+        <v>19.33</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.68</v>
+        <v>56.81</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.91</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_333.xlsx
+++ b/DATA_goal/Junction_Flooding_333.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>45014.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>13.28</v>
+        <v>13.283</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>8.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.51</v>
+        <v>3.507</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>28.83</v>
+        <v>28.828</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>21.49</v>
+        <v>21.492</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>10.24</v>
+        <v>10.237</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>30.57</v>
+        <v>30.575</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>16.29</v>
+        <v>16.288</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.47</v>
+        <v>6.473</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.56</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>11.33</v>
+        <v>11.331</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.14</v>
+        <v>12.141</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.38</v>
+        <v>3.376</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.53</v>
+        <v>10.527</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>14.42</v>
+        <v>14.419</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.41</v>
+        <v>9.413</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.8</v>
+        <v>2.798</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.64</v>
+        <v>1.636</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>152.85</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>29.12</v>
+        <v>29.125</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>18.77</v>
+        <v>18.774</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.57</v>
+        <v>9.568</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.81</v>
+        <v>2.805</v>
       </c>
       <c r="Z2" s="4" t="n">
         <v>16.47</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.58</v>
+        <v>8.583</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.9</v>
+        <v>7.902</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>9.369</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.72</v>
+        <v>11.722</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.07</v>
+        <v>3.066</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>27.69</v>
+        <v>27.695</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.18</v>
+        <v>5.181</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>12.15</v>
+        <v>12.147</v>
       </c>
     </row>
     <row r="3">
@@ -759,28 +759,28 @@
         <v>45014.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.32</v>
+        <v>13.317</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>9.538</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.66</v>
+        <v>1.657</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>29.22</v>
+        <v>29.218</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>22.93</v>
+        <v>22.928</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.36</v>
+        <v>10.357</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>39.73</v>
+        <v>39.726</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16.29</v>
+        <v>16.288</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>6.96</v>
@@ -789,73 +789,73 @@
         <v>10.12</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.65</v>
+        <v>11.649</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.46</v>
+        <v>12.459</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.38</v>
+        <v>3.382</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.53</v>
+        <v>10.527</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.76</v>
+        <v>14.757</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.23</v>
+        <v>9.228999999999999</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.36</v>
+        <v>1.365</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.93</v>
+        <v>0.928</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>152.91</v>
+        <v>152.906</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>29.45</v>
+        <v>29.447</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>19.4</v>
+        <v>19.399</v>
       </c>
       <c r="X3" s="4" t="n">
         <v>10.07</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.99</v>
+        <v>1.989</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>19.76</v>
+        <v>19.764</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.58</v>
+        <v>8.583</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.79</v>
+        <v>7.788</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.17</v>
+        <v>9.173</v>
       </c>
       <c r="AD3" s="4" t="n">
         <v>12.12</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>1.196</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>36.55</v>
+        <v>36.547</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.31</v>
+        <v>5.308</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.15</v>
+        <v>12.148</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45014.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.94</v>
+        <v>10.938</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.95</v>
+        <v>7.954</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.12</v>
+        <v>1.121</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>24.03</v>
+        <v>24.031</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>19.03</v>
+        <v>19.028</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.529999999999999</v>
+        <v>8.526</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>34.57</v>
+        <v>34.575</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>13.38</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.79</v>
+        <v>5.786</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.4</v>
+        <v>8.404</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>9.606999999999999</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.28</v>
+        <v>10.279</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.78</v>
+        <v>2.778</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.65</v>
+        <v>8.647</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.17</v>
+        <v>12.173</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.54</v>
+        <v>7.536</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.92</v>
+        <v>0.923</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.65</v>
+        <v>0.653</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>124.3</v>
+        <v>124.295</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>24.22</v>
+        <v>24.222</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.98</v>
+        <v>7.982</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>16.02</v>
+        <v>16.024</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.35</v>
+        <v>8.349</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.54</v>
+        <v>1.536</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>16.74</v>
+        <v>16.739</v>
       </c>
       <c r="AA4" s="4" t="n">
         <v>7.05</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.37</v>
+        <v>6.373</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.49</v>
+        <v>7.493</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.02</v>
+        <v>10.024</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.745</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>31.68</v>
+        <v>31.682</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>4.38</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.98</v>
+        <v>9.978999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>19.09</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45014.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>23.01</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>61.39</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>12.89</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>21.43</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.21</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_333.xlsx
+++ b/DATA_goal/Junction_Flooding_333.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -967,67 +967,67 @@
         <v>45014.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.04</v>
+        <v>21.043</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.64</v>
+        <v>15.636</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.25</v>
+        <v>1.253</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>45.99</v>
+        <v>45.986</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>37.38</v>
+        <v>37.382</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>16.5</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>62.47</v>
+        <v>62.474</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>25.6</v>
+        <v>25.596</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.33</v>
+        <v>11.332</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>16.73</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>18.43</v>
+        <v>18.432</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>19.6</v>
+        <v>19.601</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.31</v>
+        <v>5.313</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.54</v>
+        <v>16.542</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>23.5</v>
+        <v>23.505</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.99</v>
+        <v>13.994</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.803</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.856</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>244.47</v>
+        <v>244.472</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>46.22</v>
+        <v>46.218</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.27</v>
+        <v>15.269</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>31.02</v>
@@ -1036,34 +1036,138 @@
         <v>16.26</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.47</v>
+        <v>2.473</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>30.75</v>
+        <v>30.747</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.49</v>
+        <v>13.487</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.98</v>
+        <v>11.977</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.09</v>
+        <v>14.087</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>19.33</v>
+        <v>19.329</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.542</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>56.81</v>
+        <v>56.813</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.57</v>
+        <v>8.571999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>19.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45014.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>61.39</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>5.21</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_333.xlsx
+++ b/DATA_goal/Junction_Flooding_333.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -967,67 +967,67 @@
         <v>45014.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.043</v>
+        <v>21.04</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.636</v>
+        <v>15.64</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.253</v>
+        <v>1.25</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>45.986</v>
+        <v>45.99</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>37.382</v>
+        <v>37.38</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>16.5</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>62.474</v>
+        <v>62.47</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>25.596</v>
+        <v>25.6</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.332</v>
+        <v>11.33</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>16.73</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>18.432</v>
+        <v>18.43</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>19.601</v>
+        <v>19.6</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.313</v>
+        <v>5.31</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.542</v>
+        <v>16.54</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>23.505</v>
+        <v>23.5</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.994</v>
+        <v>13.99</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.803</v>
+        <v>0.8</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.856</v>
+        <v>0.86</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>244.472</v>
+        <v>244.47</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>46.218</v>
+        <v>46.22</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.269</v>
+        <v>15.27</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>31.02</v>
@@ -1036,138 +1036,34 @@
         <v>16.26</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.473</v>
+        <v>2.47</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>30.747</v>
+        <v>30.75</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.487</v>
+        <v>13.49</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.977</v>
+        <v>11.98</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.087</v>
+        <v>14.09</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>19.329</v>
+        <v>19.33</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.542</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>56.813</v>
+        <v>56.81</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.571999999999999</v>
+        <v>8.57</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>19.09</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45014.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>23.01</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>61.39</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>12.89</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>21.43</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.21</v>
       </c>
     </row>
   </sheetData>
